--- a/data/trans_bre/P1423-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.953561920112617</v>
+        <v>4.039267132515642</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.589272775357619</v>
+        <v>9.200420703789753</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.674941216209273</v>
+        <v>9.196075410404218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.548944320031347</v>
+        <v>6.861340780951846</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5817048330753691</v>
+        <v>0.6050966819555849</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.134612412021592</v>
+        <v>1.042030845338345</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.324706362545325</v>
+        <v>1.382024792054032</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5388793713240611</v>
+        <v>0.5706324939574495</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.550483415191833</v>
+        <v>8.402129172855352</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.02708200261533</v>
+        <v>14.75635271962071</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.56922396900178</v>
+        <v>14.83339678213077</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.99910461846976</v>
+        <v>13.03846668259019</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.005239774186886</v>
+        <v>1.905182069575549</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.701822656106089</v>
+        <v>2.600302063011091</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.621038758892732</v>
+        <v>3.893527580208874</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.582031681680614</v>
+        <v>1.653955995854153</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.835370728038726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.649467836725877</v>
+        <v>5.649467836725874</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.928590412997217</v>
@@ -749,7 +749,7 @@
         <v>2.001361824901896</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.0490437290919</v>
+        <v>1.049043729091899</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.374683107106365</v>
+        <v>2.218950335049917</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.886248428277732</v>
+        <v>2.797451103772022</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.331619988957038</v>
+        <v>4.323102915133599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.131587804221845</v>
+        <v>4.162137365932496</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9891965675377928</v>
+        <v>0.9678488533251565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7479631073528765</v>
+        <v>0.7662822436453904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.232411435210369</v>
+        <v>1.229154917253805</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6677014246520199</v>
+        <v>0.6591447437771393</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.025172213489885</v>
+        <v>4.934499264486938</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.843054918953851</v>
+        <v>5.816469143728034</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.485441554076064</v>
+        <v>7.421538496082515</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.122495356509499</v>
+        <v>7.156417334574656</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.573796024643806</v>
+        <v>3.475218137378002</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.317636515812856</v>
+        <v>2.337647918421489</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.031715968653627</v>
+        <v>3.100210594067429</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.52518142629696</v>
+        <v>1.555575581299066</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>0.6403988268887824</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3525030389381618</v>
+        <v>0.3525030389381619</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8899088349602763</v>
+        <v>-0.9093369728542109</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.353329091537248</v>
+        <v>-1.460926617637116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6942549240112349</v>
+        <v>-0.9335277131657937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.724880374693294</v>
+        <v>-0.935277218239856</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2724830612675016</v>
+        <v>-0.2606559792242644</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.39188044645725</v>
+        <v>-0.3865721154859032</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3191693053399908</v>
+        <v>-0.3701047338922837</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.117003917477194</v>
+        <v>-0.1501791253427648</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.919308835779916</v>
+        <v>3.993967941317202</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.902705836488424</v>
+        <v>3.560236853606858</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.313993722899021</v>
+        <v>3.313520135690676</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.545992798339237</v>
+        <v>4.370383024227804</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.057157914211194</v>
+        <v>2.299166235162193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.308985280091608</v>
+        <v>2.457360564922737</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.020481384095735</v>
+        <v>2.859592179396401</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.11675632708754</v>
+        <v>1.153274711717066</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.884393090074614</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.121633576553287</v>
+        <v>6.121633576553285</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.459322715576148</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.423897257326848</v>
+        <v>3.444662043215715</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.857885010305801</v>
+        <v>5.963298914878632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5.661122749950099</v>
+        <v>5.655427338255172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.853359970345024</v>
+        <v>4.92133399812665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9453529759130482</v>
+        <v>0.926760299679533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.202832253295427</v>
+        <v>1.265437834071421</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.505080850896137</v>
+        <v>1.513545777986376</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7344688482713345</v>
+        <v>0.7287559884314223</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.613731949516527</v>
+        <v>5.650467788534503</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.493958651535477</v>
+        <v>8.529736064637566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.07941039831535</v>
+        <v>8.240494766385392</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.394093984342999</v>
+        <v>7.397640286825283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.071105244030165</v>
+        <v>2.066848058208211</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.312254318696576</v>
+        <v>2.39382860123922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.856854752164558</v>
+        <v>2.964317908989509</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.40127602407733</v>
+        <v>1.3353710929785</v>
       </c>
     </row>
     <row r="16">
